--- a/data/trans_dic/EXP_TABACO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/EXP_TABACO-Edad-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda</t>
+          <t>Exposición pasiva al tabaco en la vivienda (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1826,7 +1826,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Exposición pasiva al tabaco en la vivienda</t>
+          <t>Exposición pasiva al tabaco en la vivienda (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/EXP_TABACO-Edad-trans_dic.xlsx
+++ b/data/trans_dic/EXP_TABACO-Edad-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 21,37</t>
+          <t>6,36; 17,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,27; 34,72</t>
+          <t>14,33; 33,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,6; 48,58</t>
+          <t>31,22; 48,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 26,81</t>
+          <t>12,68; 32,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,39; 36,09</t>
+          <t>16,04; 35,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>28,97; 46,42</t>
+          <t>29,62; 45,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,11; 21,5</t>
+          <t>11,06; 22,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,69; 31,85</t>
+          <t>17,49; 32,13</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,15; 44,18</t>
+          <t>32,99; 44,56</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>16,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,98; 23,1</t>
+          <t>8,95; 21,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,93; 27,97</t>
+          <t>13,29; 28,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,52; 43,8</t>
+          <t>31,02; 43,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,38; 23,56</t>
+          <t>10,37; 23,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,38; 23,38</t>
+          <t>6,27; 23,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,04; 31,7</t>
+          <t>19,95; 31,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 20,93</t>
+          <t>10,97; 20,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 22,92</t>
+          <t>10,61; 22,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,74; 35,74</t>
+          <t>27,06; 36,04</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 24,64</t>
+          <t>15,93; 26,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,3; 16,42</t>
+          <t>8,04; 15,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,48; 35,73</t>
+          <t>23,82; 35,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,59; 19,79</t>
+          <t>8,82; 17,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 19,05</t>
+          <t>12,12; 19,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 26,69</t>
+          <t>16,56; 26,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,96</t>
+          <t>13,8; 20,48</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,46; 16,61</t>
+          <t>11,23; 16,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,16; 29,2</t>
+          <t>21,14; 28,95</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>15,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 21,69</t>
+          <t>11,84; 20,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,44; 80,79</t>
+          <t>10,03; 77,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,99; 24,05</t>
+          <t>12,94; 24,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 20,89</t>
+          <t>12,59; 20,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 18,44</t>
+          <t>12,86; 18,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,98; 26,12</t>
+          <t>16,06; 26,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,18; 20,02</t>
+          <t>13,34; 19,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,89; 70,14</t>
+          <t>12,67; 67,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 22,87</t>
+          <t>15,6; 23,42</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1285,12 +1285,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,86</t>
+          <t>10,46; 18,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,12; 18,79</t>
+          <t>11,21; 18,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1300,17 +1300,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 31,65</t>
+          <t>17,56; 30,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,36</t>
+          <t>8,49; 15,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,45; 16,37</t>
+          <t>10,61; 16,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,09; 35,27</t>
+          <t>23,46; 35,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>13,31; 18,65</t>
+          <t>10,76; 15,62</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,62; 16,39</t>
+          <t>11,85; 16,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,71; 31,65</t>
+          <t>22,34; 31,41</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1425,12 +1425,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,98</t>
+          <t>5,25; 10,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,94</t>
+          <t>3,95; 9,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,4; 28,99</t>
+          <t>12,93; 29,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,83; 13,91</t>
+          <t>8,23; 15,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 12,06</t>
+          <t>1,67; 12,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1460,17 +1460,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,51; 25,39</t>
+          <t>11,79; 24,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,07</t>
+          <t>7,32; 12,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 9,64</t>
+          <t>2,38; 9,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>14,17; 23,65</t>
+          <t>13,94; 23,83</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1565,12 +1565,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,33</t>
+          <t>3,14; 9,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1580,17 +1580,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,17; 22,03</t>
+          <t>6,73; 20,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,65</t>
+          <t>3,27; 8,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,09; 9,57</t>
+          <t>4,08; 9,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,87; 18,16</t>
+          <t>6,6; 18,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,03</t>
+          <t>3,8; 7,77</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,2</t>
+          <t>2,61; 6,11</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>8,17; 17,24</t>
+          <t>7,9; 16,21</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>13,77%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,79%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
@@ -1705,12 +1705,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,26; 15,51</t>
+          <t>11,76; 15,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12,6; 50,73</t>
+          <t>12,57; 50,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1720,17 +1720,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,18</t>
+          <t>23,93; 29,23</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,48; 14,38</t>
+          <t>11,18; 14,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 15,82</t>
+          <t>9,11; 15,57</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1740,17 +1740,17 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,42; 24,98</t>
+          <t>20,41; 25,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,11; 14,37</t>
+          <t>12,01; 14,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>12,78; 36,55</t>
+          <t>12,67; 34,9</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,88; 26,4</t>
+          <t>23,0; 26,36</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>7640</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -2036,7 +2036,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>14551</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8156</t>
+          <t>22191</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2263; 5451</t>
+          <t>4409; 12452</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32432; 78932</t>
+          <t>32578; 76036</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -2099,17 +2099,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19338; 29730</t>
+          <t>19106; 29883</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2973; 6326</t>
+          <t>9059; 23233</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28819; 63445</t>
+          <t>28194; 62503</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -2119,17 +2119,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17198; 27559</t>
+          <t>17584; 27077</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5944; 10555</t>
+          <t>15556; 31465</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>71327; 128407</t>
+          <t>70521; 129515</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>38763; 53264</t>
+          <t>39779; 53722</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4708</t>
+          <t>12965</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5374</t>
+          <t>14606</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10083</t>
+          <t>27571</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -2292,12 +2292,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3171; 6670</t>
+          <t>8160; 19896</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28165; 60916</t>
+          <t>28938; 61423</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -2307,17 +2307,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37438; 52016</t>
+          <t>36844; 52212</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3667; 7590</t>
+          <t>9455; 21571</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22722; 72029</t>
+          <t>19329; 71230</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24831; 39288</t>
+          <t>24730; 38759</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7715; 12786</t>
+          <t>19997; 36504</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58074; 120512</t>
+          <t>55816; 117756</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>64900; 86746</t>
+          <t>65662; 87461</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>26823</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7572</t>
+          <t>16011</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16401</t>
+          <t>42835</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6936; 11594</t>
+          <t>20494; 34415</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>23810; 47086</t>
+          <t>23055; 45079</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2515,17 +2515,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31511; 47950</t>
+          <t>31964; 47662</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5434; 10156</t>
+          <t>11127; 21806</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>37621; 59181</t>
+          <t>37638; 59435</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -2535,17 +2535,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>21342; 34823</t>
+          <t>21613; 35157</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>13266; 19634</t>
+          <t>35153; 52157</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>68434; 99188</t>
+          <t>67105; 98565</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>56000; 77296</t>
+          <t>55966; 76623</t>
         </is>
       </c>
     </row>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12174</t>
+          <t>23958</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>12591</t>
+          <t>24723</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>24765</t>
+          <t>48681</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2708,12 +2708,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>9628; 15618</t>
+          <t>17936; 30617</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>61138; 473225</t>
+          <t>58722; 453425</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2723,17 +2723,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14604; 27042</t>
+          <t>14548; 27207</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9842; 15369</t>
+          <t>18991; 31382</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>50151; 72629</t>
+          <t>50644; 73411</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2743,17 +2743,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>19044; 31137</t>
+          <t>19142; 31546</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20650; 29151</t>
+          <t>40324; 57665</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>126288; 687112</t>
+          <t>124149; 662714</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36227; 52969</t>
+          <t>36129; 54254</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11326</t>
+          <t>18715</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12220</t>
+          <t>15966</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>23547</t>
+          <t>34681</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -2916,12 +2916,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8768; 14141</t>
+          <t>13586; 23872</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>35074; 59275</t>
+          <t>35367; 58986</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15657; 28610</t>
+          <t>15870; 27778</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9423; 15776</t>
+          <t>11932; 21206</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>30275; 47409</t>
+          <t>30744; 48186</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -2951,17 +2951,17 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>25859; 39489</t>
+          <t>26269; 39701</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19869; 27846</t>
+          <t>29095; 42258</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>70314; 99170</t>
+          <t>71708; 99586</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -2971,7 +2971,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>45955; 64044</t>
+          <t>45215; 63557</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5538</t>
+          <t>7410</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6934</t>
+          <t>12192</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>12473</t>
+          <t>19602</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3863; 7867</t>
+          <t>5045; 10508</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7596; 18476</t>
+          <t>7344; 18276</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>8912; 19281</t>
+          <t>8603; 19803</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5381; 9554</t>
+          <t>9203; 17015</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6817; 49859</t>
+          <t>6887; 51061</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -3159,17 +3159,17 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>10503; 21322</t>
+          <t>9904; 20407</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9880; 15610</t>
+          <t>15216; 25025</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>13144; 57750</t>
+          <t>14286; 59236</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>21328; 35598</t>
+          <t>20975; 35870</t>
         </is>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>2271</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3393</t>
+          <t>6832</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5664</t>
+          <t>11144</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
@@ -3332,12 +3332,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1251; 3702</t>
+          <t>2507; 7595</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0; 4819</t>
+          <t>0; 4556</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -3347,17 +3347,17 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3932; 12075</t>
+          <t>3691; 11426</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2070; 5344</t>
+          <t>4188; 10718</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>7162; 16764</t>
+          <t>7154; 17423</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5396; 14264</t>
+          <t>5186; 14220</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3904; 7891</t>
+          <t>7903; 16146</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>8342; 18918</t>
+          <t>7958; 18630</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>10895; 22995</t>
+          <t>10532; 21623</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>48523</t>
+          <t>101824</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>52566</t>
+          <t>104880</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3512,7 +3512,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>101089</t>
+          <t>206705</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
@@ -3540,12 +3540,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>43203; 54635</t>
+          <t>87747; 116086</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>245565; 988746</t>
+          <t>245006; 986895</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -3555,17 +3555,17 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>153453; 186243</t>
+          <t>152724; 186597</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>47220; 59144</t>
+          <t>91623; 120277</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>209623; 326838</t>
+          <t>188181; 321793</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -3575,17 +3575,17 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>144461; 176701</t>
+          <t>144383; 178139</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>92439; 109761</t>
+          <t>188043; 226525</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>513001; 1467693</t>
+          <t>508604; 1401507</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>307890; 355285</t>
+          <t>309511; 354721</t>
         </is>
       </c>
     </row>
